--- a/bewakoof_products.xlsx
+++ b/bewakoof_products.xlsx
@@ -404,13 +404,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
+        <v>name</v>
       </c>
       <c r="B1" t="str">
-        <v>Price</v>
+        <v>price</v>
       </c>
       <c r="C1" t="str">
-        <v>Rating</v>
+        <v>rating</v>
       </c>
     </row>
     <row r="2">
@@ -421,7 +421,7 @@
         <v>₹699₹299₹1299₹499₹1699₹399₹409₹299₹1199₹999</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>4.64.44.64.44.54.54.44.54.54.6</v>
       </c>
     </row>
   </sheetData>
